--- a/biology/Zoologie/Chironex_fleckeri/Chironex_fleckeri.xlsx
+++ b/biology/Zoologie/Chironex_fleckeri/Chironex_fleckeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cuboméduse d'Australie (Chironex fleckeri), aussi appelée piqueur marin, guêpe de mer, main de la mort ou main qui tue, ou encore méduse boite ou dard marin est une cuboméduse (méduses de la classe des cubozoa) de la famille des Chirodropidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom binomial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Chironex est une combinaison du grec khiro, main et nex, tuer, allusion à la taille de la méduse et son caractère venimeux. L'épithète fait référence au toxicologue Hugo Flecker (en) qui l'a identifiée)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Chironex est une combinaison du grec khiro, main et nex, tuer, allusion à la taille de la méduse et son caractère venimeux. L'épithète fait référence au toxicologue Hugo Flecker (en) qui l'a identifiée).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette méduse est la plus grande des cubozoaires pesant 2 à 6 kg. Elle est de forme carrée et peut devenir aussi grosse qu'une balle de baseball. Il y a une grande cloche en forme de parapluie avec quatre faisceaux de tentacules émergeant des coins de la cloche. De chacun des quatre coins de la cloche traine un groupe de 15 tentacules pouvant atteindre 5 m de long. Chaque tentacule contient des millions de nématocystes, qui sont des crochets microscopiques dans lesquels le venin est retenu et délivré. Elle a quatre grappes d'yeux avec 24 yeux. Cette espèce est de couleur bleu pâle et présente une symétrie radiale. Avec une seule ouverture (la bouche et l'entrée de la cavité) son corps englobe un seul espace corporel en forme de sac[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette méduse est la plus grande des cubozoaires pesant 2 à 6 kg. Elle est de forme carrée et peut devenir aussi grosse qu'une balle de baseball. Il y a une grande cloche en forme de parapluie avec quatre faisceaux de tentacules émergeant des coins de la cloche. De chacun des quatre coins de la cloche traine un groupe de 15 tentacules pouvant atteindre 5 m de long. Chaque tentacule contient des millions de nématocystes, qui sont des crochets microscopiques dans lesquels le venin est retenu et délivré. Elle a quatre grappes d'yeux avec 24 yeux. Cette espèce est de couleur bleu pâle et présente une symétrie radiale. Avec une seule ouverture (la bouche et l'entrée de la cavité) son corps englobe un seul espace corporel en forme de sac,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'à récemment, on pensait que les méduses australiennes étaient rares dans les eaux profondes, car les relevés marins de la Grande Barrière de Corail en ont trouvé peu loin du rivage ou plus de 5 m de profondeur. Cependant, une étude vidéo opportuniste en haute mer dans le nord-ouest de l'Australie en a trouvé un grand nombre à des profondeurs de 39 à 56 m (64 dans un remorquage de 1500 m). Ces animaux habitent également les rivières peu profondes pendant la saison de reproduction et pendant leur stade polype. Un fois que les jeunes méduses deviennent méduses, elles suivent la rivière jusqu'à la mer[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'à récemment, on pensait que les méduses australiennes étaient rares dans les eaux profondes, car les relevés marins de la Grande Barrière de Corail en ont trouvé peu loin du rivage ou plus de 5 m de profondeur. Cependant, une étude vidéo opportuniste en haute mer dans le nord-ouest de l'Australie en a trouvé un grand nombre à des profondeurs de 39 à 56 m (64 dans un remorquage de 1500 m). Ces animaux habitent également les rivières peu profondes pendant la saison de reproduction et pendant leur stade polype. Un fois que les jeunes méduses deviennent méduses, elles suivent la rivière jusqu'à la mer.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se nourrit principalement de petits poissons et de crevettes. Elle a tendance à se nourrir principalement de crevettes, Acetes australis. Cette méduse compte sur ses tentacules venimeux pour capturer ses proies. Les millions de nématocystes sur ses tentacules délivrent des doses mortelles de venin à ses proies, les immobilisant ou les tuant en peu de temps. C'est un chasseur de jour car on le voit se reposer sur le fond de l'océan la nuit[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nourrit principalement de petits poissons et de crevettes. Elle a tendance à se nourrir principalement de crevettes, Acetes australis. Cette méduse compte sur ses tentacules venimeux pour capturer ses proies. Les millions de nématocystes sur ses tentacules délivrent des doses mortelles de venin à ses proies, les immobilisant ou les tuant en peu de temps. C'est un chasseur de jour car on le voit se reposer sur le fond de l'océan la nuit.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tortue verte Chelonia mydas est l'unique prédateur connu de la méduse-boîte, insensible à ses piqûres en raison de sa peau épaisse qui ne permet pas au venin de la méduse de la pénétrer[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tortue verte Chelonia mydas est l'unique prédateur connu de la méduse-boîte, insensible à ses piqûres en raison de sa peau épaisse qui ne permet pas au venin de la méduse de la pénétrer.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Chironex fleckeri n'est pas une « méduse » au sens classique (classe des Scyphozoa) mais une « cuboméduse » (Cubozoa), un groupe d'animaux assez différent malgré certaines ressemblances, souvent plus petits et plus dangereux.
 Comme toutes les méduses, Chironex fleckeri commencent leur vie en tant que planula, puis passent par le stade du polype. La forme pélagique (méduse) est la forme reproductive.
@@ -700,10 +724,12 @@
           <t>La méduse la plus venimeuse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les 10 000 espèces connues de Cnidaria, environ 100 sont potentiellement dangereuses pour l'Homme. La méduse australienne est responsable de plus de 70 piqures mortelles ou "poisons" depuis 1883, seulement en Australie, en particulier le long des côtes du Queensland. Les cubozoaires comprennent également plusieurs espèces de quatre méduses à boîte tentaculées qui causent le syndrome d'Irukandji.
-Cette espèce est reconnue comme étant la méduse la plus mortelle, responsable du syndrome d'Irukandji. Les piqures, résultant du contact avec les nématocystes des tentacules, libèrent des fléchettes empoisonnées contenant des porines, des peptides neurologiques et des lipides bioactifs, potentiellement suffisants pour tuer 60 adultes. La toxine australienne de méduses est injectée dans la peau. Elle a des effets directs sur les muscles et les nerfs, et peur causer des complications immunologiques chroniques[4].
+Cette espèce est reconnue comme étant la méduse la plus mortelle, responsable du syndrome d'Irukandji. Les piqures, résultant du contact avec les nématocystes des tentacules, libèrent des fléchettes empoisonnées contenant des porines, des peptides neurologiques et des lipides bioactifs, potentiellement suffisants pour tuer 60 adultes. La toxine australienne de méduses est injectée dans la peau. Elle a des effets directs sur les muscles et les nerfs, et peur causer des complications immunologiques chroniques.
 La gravité de la piqure est liée à la taille de la méduse en boîte (celles avec une cloche de plus de 150 mm sont considérés comme très dangereuses).
 Les symptômes cutanés surviennent immédiatement après le contact et comprennent:
 Douleurs, démangeaisons et zélures exquises dans la zone de contact
@@ -712,12 +738,12 @@
 Des ampoules peuvent se former dans les minutes qui suivent le contact
 La nécrose cutanée de pleine épaisseur peut survenir 1 à 2 semaines plus tard
 Il peut être suivi d'une hypopigmentation ou d'une hyperpigmentation en forme de fouet.
-La réponse à l'empoisonnement des méduses en boîte australienne varie d'une personne à l'autre en fonction de la façon dont le derme peut éliminer les chitines irritantes (l'exosquelette des méduses) de la peau[5].
+La réponse à l'empoisonnement des méduses en boîte australienne varie d'une personne à l'autre en fonction de la façon dont le derme peut éliminer les chitines irritantes (l'exosquelette des méduses) de la peau.
 S'en suit des difficultés à respirer, une baisse de la pression artérielle, une irritabilité et agitation, un évanouissement voire un effondrement, des arythmies cardiaques et potentiellement un arrêt cardiaque la réaction variant selon la sensibilité individuelle. Si la longueur totale estimée des zébrures est de plus de 700 mm, l'inconscience s'ensuit rapidement aboutissant à une mort douloureuse après 5 à 20 minutes. Avec leur masse corporelle inférieure, les enfants sont les plus vulnérables.
 D'une manière naturelle, la Chironex fleckeri ne tue pas intentionnellement les humains[réf. nécessaire]. Comme toutes les méduses venimeuses, cet animal n'a aucune envie de s'attaquer à une proie qu'elle ne pourrait pas ingérer, et il a d'ailleurs été constaté à maintes reprises qu'elle tente d'éviter un obstacle de taille dès qu'elle le détecte [réf. nécessaire]. Dans les cas de piqûres constatés, ce sont des baigneurs qui sont entrés involontairement en contact avec elle car elle est transparente et ses tentacules très fins et difficilement visibles mesurent jusqu'à plus de trois mètres de long.
 Leurs nématocystes (cellules venimeuses) comportent un cil sensible chimiquement au contact avec une substance qui se trouve sur les poissons, les crustacés et les humains. Ils comportent à l'intérieur une fine et longue pointe. Dès qu'ils se déclenchent, cette pointe est retournée, son intérieur devenant son extérieur, elle est projetée en 600 nanosecondes[réf. nécessaire], et injecte son venin directement dans la circulation sanguine. La petite taille des filaments urticants a pour conséquence qu’une simple tenue de protection (type combinaison de plongée ou rashguard) suffit pour se prémunir des piqûres.
-Un tentacule contient cinq millions de nématocystes[6], le venin pénètre donc sur une très large surface (on estime qu’il faut un contact minimum sur 3 mètres de tentacules pour délivrer une dose létale)[7].
-Une piqûre de cette méduse provoque une paralysie respiratoire et cardiaque (dans les cas mortels, le cœur reste en état contracté) en quelques minutes. Il existe depuis les années 1970 un anti-venin efficace disponible dans les trousses des secouristes sur les plages touchées par les méduses, mais il n'empêche pas les cas mortels, l'intervention des secours et le temps d'action de cet anti-venin étant parfois trop long[8]. Par ailleurs, la souffrance générée par sa piqûre dépassant les pics de douleurs les plus extrêmes, les victimes sont susceptibles de s’évanouir et donc de se noyer avant d’avoir pu être sorties de l’eau pour bénéficier d'un anti-venin[9]. Malgré tout une fillette australienne de 10 ans, Rachael Shardlow, a survécu à une piqûre sévère dans la rivière Calliope, près de Gladstone, dans le Queensland en décembre 2009[10].
+Un tentacule contient cinq millions de nématocystes, le venin pénètre donc sur une très large surface (on estime qu’il faut un contact minimum sur 3 mètres de tentacules pour délivrer une dose létale).
+Une piqûre de cette méduse provoque une paralysie respiratoire et cardiaque (dans les cas mortels, le cœur reste en état contracté) en quelques minutes. Il existe depuis les années 1970 un anti-venin efficace disponible dans les trousses des secouristes sur les plages touchées par les méduses, mais il n'empêche pas les cas mortels, l'intervention des secours et le temps d'action de cet anti-venin étant parfois trop long. Par ailleurs, la souffrance générée par sa piqûre dépassant les pics de douleurs les plus extrêmes, les victimes sont susceptibles de s’évanouir et donc de se noyer avant d’avoir pu être sorties de l’eau pour bénéficier d'un anti-venin. Malgré tout une fillette australienne de 10 ans, Rachael Shardlow, a survécu à une piqûre sévère dans la rivière Calliope, près de Gladstone, dans le Queensland en décembre 2009.
 </t>
         </is>
       </c>
@@ -746,7 +772,9 @@
           <t>D'autres informations relatives aux piqures</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les méduses en boîte sont le plus souvent présentes dans les aux tropicales australiennes de novembre à avril de chaque année, 8 % des piqures se produisant en dehors de cette période.
 Les piqures se produisent le plus souvent chez les hommes adultes dans l'eau de moins de 100 m de profondeur.
@@ -782,12 +810,14 @@
           <t>Différents protocoles</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas de piqûre, vu l'extrême dangerosité du venin et la douleur insupportable générée, il faut appeler immédiatement une aide médicale puis appliquer les premiers soins : rincer la zone piquée avec du vinaigre (mais ne jamais rincer à l'eau douce, ni frotter, car cela stimule la libération du venin) puis retirer les tentacules à l'aide d'une pince et enfin appliquer une vessie de glace ; de plus, le bouche-à-bouche en cas de difficultés respiratoires ou le massage cardiaque (la plupart des cas mortels sont dus à une défaillance cardiaque) sont souvent indispensables à la survie de la victime en attendant les secours et des moyens médicaux plus importants[11].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de piqûre, vu l'extrême dangerosité du venin et la douleur insupportable générée, il faut appeler immédiatement une aide médicale puis appliquer les premiers soins : rincer la zone piquée avec du vinaigre (mais ne jamais rincer à l'eau douce, ni frotter, car cela stimule la libération du venin) puis retirer les tentacules à l'aide d'une pince et enfin appliquer une vessie de glace ; de plus, le bouche-à-bouche en cas de difficultés respiratoires ou le massage cardiaque (la plupart des cas mortels sont dus à une défaillance cardiaque) sont souvent indispensables à la survie de la victime en attendant les secours et des moyens médicaux plus importants.
 La chaleur n'est pas recommandée dans le cadre du traitement standard, bien qu'elle puisse réduire la létalité du venin lorsqu'elle est maintenue à plus de 43°C, car l'utilisation de la chaleur peut dissuader des efforts précieux de contrôles des symptômes et de réanimation. De plus, n'appliquez pas de bandages d'immobilisation sous pression, car ils peuvent déclencher une nouvelle décharge de toxines.
-Une mesure de protection artisanale et ancienne consiste à utiliser des collants en nylon (un utilisé "normalement" en dessous de la taille, et un autre pour les bras et le torse). Les nématocystes (cellules venimeuses) comportent un cil sensible chimiquement au contact avec les êtres vivants, le venin est économisé et non injecté au contact avec des substances inertes comme les rochers... ou le nylon. Cette méthode très économique reste d'actualité malgré le développement d'équipements de protection individuelle (combinaisons intégrales, plus pratiques mais beaucoup plus onéreuses, crèmes anti-méduse) ou collective (filets anti-méduses), mais le coût élevé rend leur généralisation difficile, ils n'arrêtent pas d'autres méduses plus petites et néanmoins très irritantes. De plus, ces filets peuvent favoriser la formation d'une soupe urticante: Les méduses vont s’écraser contre les mailles, d’autres animaux aussi, au demeurant. Stressées, elles vont secréter un mucus urticant et leurs tentacules vont se briser tout en restant venimeux[12]. De plus, la prise de ces animaux dans des filets induit la production de spermatozoïdes et d'ovules, ce qui favorise la pullulation de méduses[13]. D'autres moyens de prévention sont la pose de panneaux d’informations, les baignades déconseillées entre novembre et mai, la prévention par modélisation pour alerter le public de l'avancée des méduses[14]. La pose de balises acoustiques miniaturisées sur ces méduses permet en effet d'évaluer la variabilité saisonnière de l’abondance de cet animal dangereux sur les plages australiennes dans le cadre de modèles de gestion des risques[15],[16].
-En 1997, la société israélienne Nidaria a isolé un composé du mucus extra-corporel des méduses qui neutralise la contraction des cnidocytes et empêche ainsi l’éjection du filament. Synthétisé et incorporé dans une crème solaire, ce produit serait un anti-méduse efficace contre les Chironex[17]. Le danger de ce produit est que les études sur lesquelles il s'appuie ne prouvent pas son efficacité sur cette espèce mortelle selon la biologiste Lisa-ann Gershwin (en), et qu'il pourrait donner un faux sentiment de sécurité aux clients qui s'enduisent de cette crème[18].
+Une mesure de protection artisanale et ancienne consiste à utiliser des collants en nylon (un utilisé "normalement" en dessous de la taille, et un autre pour les bras et le torse). Les nématocystes (cellules venimeuses) comportent un cil sensible chimiquement au contact avec les êtres vivants, le venin est économisé et non injecté au contact avec des substances inertes comme les rochers... ou le nylon. Cette méthode très économique reste d'actualité malgré le développement d'équipements de protection individuelle (combinaisons intégrales, plus pratiques mais beaucoup plus onéreuses, crèmes anti-méduse) ou collective (filets anti-méduses), mais le coût élevé rend leur généralisation difficile, ils n'arrêtent pas d'autres méduses plus petites et néanmoins très irritantes. De plus, ces filets peuvent favoriser la formation d'une soupe urticante: Les méduses vont s’écraser contre les mailles, d’autres animaux aussi, au demeurant. Stressées, elles vont secréter un mucus urticant et leurs tentacules vont se briser tout en restant venimeux. De plus, la prise de ces animaux dans des filets induit la production de spermatozoïdes et d'ovules, ce qui favorise la pullulation de méduses. D'autres moyens de prévention sont la pose de panneaux d’informations, les baignades déconseillées entre novembre et mai, la prévention par modélisation pour alerter le public de l'avancée des méduses. La pose de balises acoustiques miniaturisées sur ces méduses permet en effet d'évaluer la variabilité saisonnière de l’abondance de cet animal dangereux sur les plages australiennes dans le cadre de modèles de gestion des risques,.
+En 1997, la société israélienne Nidaria a isolé un composé du mucus extra-corporel des méduses qui neutralise la contraction des cnidocytes et empêche ainsi l’éjection du filament. Synthétisé et incorporé dans une crème solaire, ce produit serait un anti-méduse efficace contre les Chironex. Le danger de ce produit est que les études sur lesquelles il s'appuie ne prouvent pas son efficacité sur cette espèce mortelle selon la biologiste Lisa-ann Gershwin (en), et qu'il pourrait donner un faux sentiment de sécurité aux clients qui s'enduisent de cette crème.
 </t>
         </is>
       </c>
@@ -816,9 +846,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette cuboméduse dans l'ouest de l'océan Pacifique tropical, au nord de la Papouasie-Nouvelle-Guinée[19]et jusqu'aux Philippines et au Vietnam.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette cuboméduse dans l'ouest de l'océan Pacifique tropical, au nord de la Papouasie-Nouvelle-Guinéeet jusqu'aux Philippines et au Vietnam.
 </t>
         </is>
       </c>
